--- a/LR6/Сравнение.xlsx
+++ b/LR6/Сравнение.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakepps/Downloads/Telegram Desktop/lab_6 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakepps/GitHub/Multimedia_processing/LR6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95008B83-F0DD-4041-AC75-FB0F6377E864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7B73E9-E3E8-584D-926D-4172EFF7C04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>1</t>
   </si>
@@ -62,6 +62,75 @@
   </si>
   <si>
     <t>0,01</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>Скорость (сек)</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>1.09'</t>
+  </si>
+  <si>
+    <t>1.17'</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>1.97</t>
+  </si>
+  <si>
+    <t>1,46</t>
+  </si>
+  <si>
+    <t>1,69</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>1.93</t>
+  </si>
+  <si>
+    <t>2,33</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>2.74</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>2.75</t>
   </si>
 </sst>
 </file>
@@ -116,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -131,6 +200,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -416,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -426,7 +498,7 @@
     <col min="2" max="2" width="17.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="3"/>
+    <col min="5" max="5" width="14" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" style="3" customWidth="1"/>
     <col min="8" max="16384" width="8.83203125" style="3"/>
@@ -445,7 +517,9 @@
       <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="I1" s="2"/>
@@ -463,7 +537,9 @@
       <c r="D2" s="5">
         <v>0.95</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
@@ -480,7 +556,9 @@
       <c r="D3" s="5">
         <v>0.95</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
@@ -497,7 +575,9 @@
       <c r="D4" s="5">
         <v>0.95</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
@@ -514,7 +594,9 @@
       <c r="D5" s="5">
         <v>0.95</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -531,7 +613,9 @@
       <c r="D6" s="5">
         <v>0.95</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
@@ -548,7 +632,9 @@
       <c r="D7" s="5">
         <v>0.95</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
@@ -565,6 +651,9 @@
       <c r="D8" s="5">
         <v>0.86</v>
       </c>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -578,6 +667,9 @@
       </c>
       <c r="D9" s="5">
         <v>0.31</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -593,6 +685,12 @@
       <c r="D10" s="5">
         <v>0.28000000000000003</v>
       </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -607,6 +705,9 @@
       <c r="D12" s="5">
         <v>0.96</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -621,6 +722,9 @@
       <c r="D13" s="5">
         <v>0.96</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -635,6 +739,9 @@
       <c r="D14" s="5">
         <v>0.96</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -649,6 +756,9 @@
       <c r="D15" s="5">
         <v>0.95</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -663,8 +773,11 @@
       <c r="D16" s="5">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -677,8 +790,11 @@
       <c r="D17" s="5">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -691,8 +807,11 @@
       <c r="D18" s="5">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -705,8 +824,11 @@
       <c r="D19" s="5">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -719,8 +841,14 @@
       <c r="D20" s="5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -733,8 +861,11 @@
       <c r="D22" s="5">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -747,8 +878,11 @@
       <c r="D23" s="5">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -761,8 +895,11 @@
       <c r="D24" s="5">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -775,8 +912,11 @@
       <c r="D25" s="5">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>3</v>
       </c>
@@ -789,8 +929,11 @@
       <c r="D26" s="5">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>3</v>
       </c>
@@ -803,8 +946,11 @@
       <c r="D27" s="5">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>3</v>
       </c>
@@ -817,8 +963,11 @@
       <c r="D28" s="5">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>3</v>
       </c>
@@ -831,8 +980,11 @@
       <c r="D29" s="5">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>3</v>
       </c>
@@ -844,6 +996,9 @@
       </c>
       <c r="D30" s="5">
         <v>0.3</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/LR6/Сравнение.xlsx
+++ b/LR6/Сравнение.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakepps/GitHub/Multimedia_processing/LR6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7B73E9-E3E8-584D-926D-4172EFF7C04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050D7BB8-A368-EB45-8F3E-0B0351931322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,12 +82,6 @@
     <t>1.15</t>
   </si>
   <si>
-    <t>1.09'</t>
-  </si>
-  <si>
-    <t>1.17'</t>
-  </si>
-  <si>
     <t>1.43</t>
   </si>
   <si>
@@ -131,6 +125,12 @@
   </si>
   <si>
     <t>2.75</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>1.17</t>
   </si>
 </sst>
 </file>
@@ -185,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,9 +200,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -537,7 +534,7 @@
       <c r="D2" s="5">
         <v>0.95</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1"/>
@@ -556,7 +553,7 @@
       <c r="D3" s="5">
         <v>0.95</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1"/>
@@ -575,7 +572,7 @@
       <c r="D4" s="5">
         <v>0.95</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1"/>
@@ -594,7 +591,7 @@
       <c r="D5" s="5">
         <v>0.95</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="1"/>
@@ -613,8 +610,8 @@
       <c r="D6" s="5">
         <v>0.95</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>15</v>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -632,7 +629,7 @@
       <c r="D7" s="5">
         <v>0.95</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="1"/>
@@ -651,7 +648,7 @@
       <c r="D8" s="5">
         <v>0.86</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -668,8 +665,8 @@
       <c r="D9" s="5">
         <v>0.31</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>15</v>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -685,8 +682,8 @@
       <c r="D10" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>16</v>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -706,7 +703,7 @@
         <v>0.96</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -723,7 +720,7 @@
         <v>0.96</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -740,7 +737,7 @@
         <v>0.96</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -757,7 +754,7 @@
         <v>0.95</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -774,7 +771,7 @@
         <v>0.96</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -791,7 +788,7 @@
         <v>0.94</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -808,7 +805,7 @@
         <v>0.89</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -825,7 +822,7 @@
         <v>0.66</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -842,7 +839,7 @@
         <v>0.3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -862,7 +859,7 @@
         <v>0.97</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -879,7 +876,7 @@
         <v>0.97</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -896,7 +893,7 @@
         <v>0.97</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -913,7 +910,7 @@
         <v>0.97</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -930,7 +927,7 @@
         <v>0.96</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -947,7 +944,7 @@
         <v>0.96</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -964,7 +961,7 @@
         <v>0.89</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -981,7 +978,7 @@
         <v>0.44</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -998,7 +995,7 @@
         <v>0.3</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
